--- a/ConsoleApp1/Sample/2-Input.xlsx
+++ b/ConsoleApp1/Sample/2-Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisasuedu.sharepoint.com/sites/ALG24.Term2/Shared Documents/General/5 Project/MATERIALS/[3] Plagiarism Validation/Sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Algo\Graph Ass\[SOLUTION]\GraphAnalysis\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A17768A9-DE93-4E4B-A20A-3BE543B373F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE03F74-E1D0-4837-9A29-D289B5AE69C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17768A9-DE93-4E4B-A20A-3BE543B373F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,18 +464,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="5"/>
+    <col min="1" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -499,7 +498,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -511,7 +510,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -522,7 +521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -533,7 +532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -544,7 +543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -555,7 +554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -566,7 +565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -577,7 +576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -588,7 +587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -627,15 +626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B9D56C6C3D48844B523255EE5F913EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e56c70ee8e35d13338cf11322dffd07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1cc1538f-a989-47d6-92fb-89fcd0265031" xmlns:ns3="17eda93a-431a-4573-b14d-5d3253275257" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d841a9c5a1d2da4b318a6080b9af024" ns2:_="" ns3:_="">
     <xsd:import namespace="1cc1538f-a989-47d6-92fb-89fcd0265031"/>
@@ -864,29 +854,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E366B5D-E920-4D66-9D23-8B5AE26791F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4DDDB0-6CD4-487E-B40F-62088B43CECC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17585FFD-8108-4D13-8A9B-5D489860312F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1cc1538f-a989-47d6-92fb-89fcd0265031"/>
-    <ds:schemaRef ds:uri="17eda93a-431a-4573-b14d-5d3253275257"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A8A60E1-DB8D-4E5E-A3D7-2ECBE1B02814}"/>
 </file>